--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_21.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_21.xlsx
@@ -483,76 +483,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1613636363636363</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#'], ['A#', 'A#/F', 'F:7']]</t>
+          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['C#:min', 'F#:7/A#', 'B:maj'], ['C#:maj', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(271.22, 275.78), (269.7, 272.54)]</t>
+          <t>[(38.2, 41.06), (251.5, 255.38)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(19.14, 22.24), (8.02, 15.1)]</t>
+          <t>[(31.34, 36.62), (0.48, 8.48)]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_179</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1569115815691158</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb/2', 'Bb']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Db', 'Db', 'Ab']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(40.219, 45.818)]</t>
+          <t>[(60.76, 82.8)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(117.0, 120.02)]</t>
+          <t>[(70.84, 95.2)]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -561,195 +557,195 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.07728085867620751</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(128.76, 134.0)]</t>
+          <t>[(97.62, 113.78)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(138.8, 145.8)]</t>
+          <t>[(11.06, 17.28)]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>isophonics_111</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_62</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.04208935894668681</v>
+        <v>0.2015810276679842</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G:min7', 'C:7']]</t>
+          <t>[['C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G:min7', 'C:7']]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(7.98, 11.21)]</t>
+          <t>[(70.519024, 75.720294)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(29.04, 30.52)]</t>
+          <t>[(17.48, 19.72)]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.09018567639257294</v>
+        <v>0.2509803921568627</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['G', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>[['C', 'D', 'G', 'D', 'G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(15.78, 21.28), (7.48, 13.84)]</t>
+          <t>[(40.281383, 49.731904)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (15.6, 24.08)]</t>
+          <t>[(46.491101, 61.200942)]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>schubert-winterreise_57</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2375</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'B'], ['E', 'A', 'E']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(57.7, 65.36), (54.18, 61.46)]</t>
+          <t>[(54.78, 57.52)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(35.080113, 43.578616), (32.920657, 39.410634)]</t>
+          <t>[(23.16, 26.04)]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_184</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_99</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1446428571428571</v>
+        <v>0.08221524407650585</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['B:min', 'E', 'D']]</t>
+          <t>[['F', 'F', 'F', 'F']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'A']]</t>
+          <t>[['Ab', 'Ab', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(31.771269, 37.280399)]</t>
+          <t>[(133.33, 138.07)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(19.963922, 23.574625)]</t>
+          <t>[(83.46, 88.05)]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -758,117 +754,117 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>schubert-winterreise_154</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.09642857142857142</v>
+        <v>0.2687747035573123</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(236.4, 239.98)]</t>
+          <t>[(9.24, 17.72)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(64.08, 70.34)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[(17.36, 20.12)]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.05499181669394435</v>
+        <v>0.09642857142857142</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['C:min/G', 'G', 'C:min']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[(11.82, 16.4)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(16.04, 22.4)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[(44.16, 48.16)]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.03709677419354838</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['C', 'C/G', 'G:7']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['Bb', 'Bb', 'F:7']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(59.6, 70.34)]</t>
+          <t>[(250.3, 252.76)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(3.9, 16.08)]</t>
+          <t>[(7.59, 10.86)]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -877,39 +873,47 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.09642857142857142</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3'], ['G/3', 'G', 'C']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D'], ['D/5', 'D', 'G']]</t>
+          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(22.020589, 24.598004), (5.894331, 9.748843)]</t>
+          <t>[(8.18, 14.18)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(1.014823, 12.241493), (16.525575, 20.844487)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[(17.86, 28.3)]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -919,30 +923,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.3483870967741935</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(117.54, 122.7)]</t>
+          <t>[(117.54, 121.8)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(5.91585, 17.734807)]</t>
+          <t>[(28.009637, 33.826235)]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -951,35 +955,35 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2928571428571429</v>
+        <v>0.1916666666666667</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#']]</t>
+          <t>[['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(22.020589, 24.598004)]</t>
+          <t>[(7.6, 17.16)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(31.46941, 118.925813)]</t>
+          <t>[(254.26, 257.98)]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -988,72 +992,76 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>isophonics_57</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1208333333333333</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A']]</t>
+          <t>[['A', 'E', 'A'], ['A', 'E', 'D'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['C', 'G', 'C'], ['C', 'G', 'F'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.421247, 4.824512)]</t>
+          <t>[(31.840929, 37.216349), (27.452358, 31.840929), (32.920657, 39.410634)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(67.14, 70.82)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[(136.604739, 139.228594), (5.017256, 9.231677), (4.155032, 7.525011)]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_271</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_125</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1326086956521739</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F#:min', 'A:min', 'E']]</t>
+          <t>[['C/3', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min/4', 'C:min', 'G']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(15.952131, 25.971541)]</t>
+          <t>[(76.585782, 78.06481)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(2.436337, 11.259919)]</t>
+          <t>[(83.34, 87.64)]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1062,35 +1070,35 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>isophonics_10</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1696428571428572</v>
+        <v>0.1430860805860806</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['G', 'D/3', 'E:min']]</t>
+          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['Eb:maj', 'Bb/3', 'C:min']]</t>
+          <t>[['F:min', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(170.127, 176.927)]</t>
+          <t>[(45.58, 52.16)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(83.141, 89.999)]</t>
+          <t>[(0.6, 8.74)]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_21.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,158 +488,182 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C#:min', 'F#:7/A#', 'B:maj'], ['C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(38.2, 41.06), (251.5, 255.38)]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(31.34, 36.62), (0.48, 8.48)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:00.120000', '0:01:03.420000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:22.320000', '0:00:26.180000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
-        </is>
+          <t>isophonics_31</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2385964912280702</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
+          <t>[['C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(60.76, 82.8)]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(70.84, 95.2)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:13.336043', '0:00:30.271443')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:54.520000', '0:01:55.980000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_222</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_271</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2628205128205128</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['D', 'D', 'B:min', 'D', 'B:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(97.62, 113.78)]</t>
+          <t>[['E/5', 'E', 'C#:min', 'E', 'C#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(11.06, 17.28)]</t>
+          <t>[('0:00:00.411247', '0:00:19.396643')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:02.670131', '0:01:18.146780')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>schubert-winterreise_197</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>0.2015810276679842</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C', 'G:7', 'C']]</t>
-        </is>
+      <c r="D5" t="n">
+        <v>0.1120923913043478</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['E:7', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(70.519024, 75.720294)]</t>
+          <t>[['C#:7', 'F#:maj', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(17.48, 19.72)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:55.002834', '0:00:59.124376')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:42.340000', '0:00:44.580000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -643,466 +672,492 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2509803921568627</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1702898550724637</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G', 'D', 'G', 'D', 'G', 'D']]</t>
+          <t>[['G:7', 'C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(40.281383, 49.731904)]</t>
+          <t>[['C:7', 'F:maj', 'C:maj', 'F:maj'], ['F:maj/A', 'C:7', 'F:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(46.491101, 61.200942)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:07.840000', '0:00:10.040000'), ('0:00:07.280000', '0:00:09.480000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:45.960000', '0:00:49.040000'), ('0:00:44.760000', '0:00:48.460000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_57</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jaah_42</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3125</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(54.78, 57.52)]</t>
+          <t>[['C:7', 'F', 'F']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(23.16, 26.04)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:03:31.260000', '0:03:39.140000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:41.770000', '0:00:53.980000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_85</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08221524407650585</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F', 'F', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab', 'Ab', 'Ab']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(133.33, 138.07)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(83.46, 88.05)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:24.520000', '0:00:47.240000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(9.24, 17.72)]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(17.36, 20.12)]</t>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(11.82, 16.4)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(44.16, 48.16)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:01:21.620000', '0:01:43.560000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_79</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03709677419354838</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C', 'C/G', 'G:7']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'F:7']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(250.3, 252.76)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(7.59, 10.86)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[('0:00:37.995918', '0:00:52.299410')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:02:07.600000', '0:02:13.760000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3483870967741935</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(117.54, 121.8)]</t>
+          <t>[['A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(28.009637, 33.826235)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:57.500000', '0:00:59.680000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:05.800000', '0:00:15.900000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1916666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(7.6, 17.16)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(254.26, 257.98)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.08947368421052632</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A'], ['A', 'E', 'D'], ['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4038461538461539</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['C', 'G', 'F'], ['G', 'C', 'G']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(31.840929, 37.216349), (27.452358, 31.840929), (32.920657, 39.410634)]</t>
+          <t>[['B', 'E', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(136.604739, 139.228594), (5.017256, 9.231677), (4.155032, 7.525011)]</t>
+          <t>[('0:00:52.740000', '0:01:04.440000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>[('0:00:19.602494', '0:00:27.450839')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C/3', 'F', 'C/3']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(76.585782, 78.06481)]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(83.34, 87.64)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:27', '0:00:56.920000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_37</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_87</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1430860805860806</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C', 'F:min', 'C', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(45.58, 52.16)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.6, 8.74)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
